--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AREPD.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>93.66819308103017</v>
+        <v>88.20920302487313</v>
       </c>
       <c r="C2">
-        <v>99.37707078304533</v>
+        <v>98.04764679952338</v>
       </c>
       <c r="D2">
-        <v>99.03678176710382</v>
+        <v>99.21846182535455</v>
       </c>
       <c r="E2">
-        <v>98.56282980875164</v>
+        <v>98.76026201257623</v>
       </c>
       <c r="F2">
-        <v>97.9883302831434</v>
+        <v>98.1892679370048</v>
       </c>
       <c r="G2">
-        <v>97.08163156388213</v>
+        <v>97.29729133519017</v>
       </c>
       <c r="H2">
-        <v>95.72422320623167</v>
+        <v>95.87286587321537</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>82.26269400334706</v>
+        <v>83.25910012305783</v>
       </c>
       <c r="C3">
-        <v>99.11883051272497</v>
+        <v>98.92298353786403</v>
       </c>
       <c r="D3">
-        <v>99.00235746116348</v>
+        <v>99.62945199591201</v>
       </c>
       <c r="E3">
-        <v>98.58450584326613</v>
+        <v>98.86846984517264</v>
       </c>
       <c r="F3">
-        <v>98.02958688633218</v>
+        <v>98.38721355232411</v>
       </c>
       <c r="G3">
-        <v>97.03223543035692</v>
+        <v>97.38471645842995</v>
       </c>
       <c r="H3">
-        <v>95.71179293262355</v>
+        <v>95.91265432175534</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>93.46076891036989</v>
+        <v>93.56253383708672</v>
       </c>
       <c r="C4">
-        <v>99.26052560375854</v>
+        <v>97.7253575610866</v>
       </c>
       <c r="D4">
-        <v>98.94398187836015</v>
+        <v>99.11420376632694</v>
       </c>
       <c r="E4">
-        <v>98.51710911693709</v>
+        <v>98.58637681750606</v>
       </c>
       <c r="F4">
-        <v>98.09376650852197</v>
+        <v>98.2571061269427</v>
       </c>
       <c r="G4">
-        <v>97.07297265470596</v>
+        <v>97.26772153246471</v>
       </c>
       <c r="H4">
-        <v>95.65279869648411</v>
+        <v>95.86440757321071</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>93.86170860267438</v>
+        <v>90.62446518683227</v>
       </c>
       <c r="C5">
-        <v>99.25413388721923</v>
+        <v>97.8019675006344</v>
       </c>
       <c r="D5">
-        <v>99.06050231071619</v>
+        <v>99.16963294961775</v>
       </c>
       <c r="E5">
-        <v>98.54824618320764</v>
+        <v>98.72429906188519</v>
       </c>
       <c r="F5">
-        <v>98.12077989814553</v>
+        <v>98.18816835193275</v>
       </c>
       <c r="G5">
-        <v>97.15260972481433</v>
+        <v>97.21114645633337</v>
       </c>
       <c r="H5">
-        <v>95.70817694900764</v>
+        <v>95.80088590653605</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>92.1972147322886</v>
+        <v>90.38861938304689</v>
       </c>
       <c r="C6">
-        <v>99.30207895635338</v>
+        <v>97.97436348302708</v>
       </c>
       <c r="D6">
-        <v>99.13980787887309</v>
+        <v>99.21650934838365</v>
       </c>
       <c r="E6">
-        <v>98.49149363073514</v>
+        <v>98.73276714353163</v>
       </c>
       <c r="F6">
-        <v>97.92351492709678</v>
+        <v>98.15703488507259</v>
       </c>
       <c r="G6">
-        <v>97.11305002827494</v>
+        <v>97.29854031452236</v>
       </c>
       <c r="H6">
-        <v>95.60609619108821</v>
+        <v>95.85249414651719</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AREPD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>88.20920302487313</v>
@@ -456,15 +462,18 @@
         <v>98.1892679370048</v>
       </c>
       <c r="G2">
+        <v>97.71483630067273</v>
+      </c>
+      <c r="H2">
         <v>97.29729133519017</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>95.87286587321537</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>83.25910012305783</v>
@@ -482,15 +491,18 @@
         <v>98.38721355232411</v>
       </c>
       <c r="G3">
+        <v>97.8415916170577</v>
+      </c>
+      <c r="H3">
         <v>97.38471645842995</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>95.91265432175534</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>93.56253383708672</v>
@@ -508,15 +520,18 @@
         <v>98.2571061269427</v>
       </c>
       <c r="G4">
+        <v>97.77716205695562</v>
+      </c>
+      <c r="H4">
         <v>97.26772153246471</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>95.86440757321071</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>90.62446518683227</v>
@@ -534,15 +549,18 @@
         <v>98.18816835193275</v>
       </c>
       <c r="G5">
+        <v>97.71973125282346</v>
+      </c>
+      <c r="H5">
         <v>97.21114645633337</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>95.80088590653605</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>90.38861938304689</v>
@@ -560,9 +578,12 @@
         <v>98.15703488507259</v>
       </c>
       <c r="G6">
+        <v>97.76820069040014</v>
+      </c>
+      <c r="H6">
         <v>97.29854031452236</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>95.85249414651719</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AREPD.xlsx
@@ -462,13 +462,13 @@
         <v>98.1892679370048</v>
       </c>
       <c r="G2">
-        <v>97.71483630067273</v>
+        <v>97.62036855931197</v>
       </c>
       <c r="H2">
-        <v>97.29729133519017</v>
+        <v>97.25341747731727</v>
       </c>
       <c r="I2">
-        <v>95.87286587321537</v>
+        <v>95.94290401183272</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -491,13 +491,13 @@
         <v>98.38721355232411</v>
       </c>
       <c r="G3">
-        <v>97.8415916170577</v>
+        <v>97.89434264495286</v>
       </c>
       <c r="H3">
-        <v>97.38471645842995</v>
+        <v>97.3195005698543</v>
       </c>
       <c r="I3">
-        <v>95.91265432175534</v>
+        <v>95.93138923106169</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -520,13 +520,13 @@
         <v>98.2571061269427</v>
       </c>
       <c r="G4">
-        <v>97.77716205695562</v>
+        <v>97.75204231889929</v>
       </c>
       <c r="H4">
-        <v>97.26772153246471</v>
+        <v>97.24207440014614</v>
       </c>
       <c r="I4">
-        <v>95.86440757321071</v>
+        <v>95.89315695024639</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -549,13 +549,13 @@
         <v>98.18816835193275</v>
       </c>
       <c r="G5">
-        <v>97.71973125282346</v>
+        <v>97.68724301390701</v>
       </c>
       <c r="H5">
-        <v>97.21114645633337</v>
+        <v>97.19735533611643</v>
       </c>
       <c r="I5">
-        <v>95.80088590653605</v>
+        <v>95.92185052869699</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,13 +578,13 @@
         <v>98.15703488507259</v>
       </c>
       <c r="G6">
-        <v>97.76820069040014</v>
+        <v>97.79240300414726</v>
       </c>
       <c r="H6">
-        <v>97.29854031452236</v>
+        <v>97.22416751310577</v>
       </c>
       <c r="I6">
-        <v>95.85249414651719</v>
+        <v>95.85427150582643</v>
       </c>
     </row>
   </sheetData>
